--- a/data/result/error_report.xlsx
+++ b/data/result/error_report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,16 +450,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>invoice_number</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COMPOSITE_DUPLICATE</t>
+          <t>PATTERN_MISMATCH</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -467,13 +467,13 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Composite Duplicate found: ('inv-unique-1', 'cust-555')</t>
+          <t>Format mismatch for customer_code</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>202</v>
+        <v>22</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -482,7 +482,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>COMPOSITE_DUPLICATE</t>
+          <t>BUSINESS_RULE_VIOLATION</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -490,122 +490,260 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Composite Duplicate found: ('inv-1002', 'cust-202')</t>
+          <t>Incomplete Composite Key</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>invoice_number</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MISSING_REQUIRED</t>
+          <t>COMPOSITE_DUPLICATE</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Field amount is mandatory.</t>
+          <t>Composite Duplicate found: ('x', 'cust-2030')</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TYPE_MISMATCH</t>
+          <t>SYSTEM_CRASH</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Invalid float format</t>
+          <t>'float' object has no attribute 'lower'</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>35</v>
+        <v>205</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>invoice_number</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BUSINESS_RULE_VIOLATION</t>
+          <t>COMPOSITE_DUPLICATE</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Value too short. Minimum length is 3.</t>
+          <t>Composite Duplicate found: ('inv-3197', 'cust-2197')</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PATTERN_MISMATCH</t>
+          <t>BUSINESS_RULE_VIOLATION</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Format mismatch for project_code</t>
+          <t>Too short (Min: 3)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>BUSINESS_RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Invalid value. Must be one of: ['active', 'pending', 'closed', 'suspend']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>62</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>BUSINESS_RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Constraint: Since status is suspend, this must be None</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>82</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>TYPE_MISMATCH</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Invalid float format</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>202</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>BUSINESS_RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Too long (Max: 50)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PATTERN_MISMATCH</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Format mismatch for project_code</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>72</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>created_at</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>BUSINESS_RULE_VIOLATION</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D13" t="n">
         <v>3</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Year 2027 exceeds the maximum allowed year (2026).</t>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Future dates not allowed (2029)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>204</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>BUSINESS_RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Year 1970 is before allowed minimum 2000</t>
         </is>
       </c>
     </row>

--- a/data/result/error_report.xlsx
+++ b/data/result/error_report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,15 +434,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>Invalid_Value</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>Error_Type</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Severity</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Error_Message</t>
         </is>
@@ -457,23 +462,24 @@
           <t>customer_code</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>PATTERN_MISMATCH</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MISSING_REQUIRED</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Format mismatch for customer_code</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Field is mandatory but found empty.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -482,21 +488,26 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BUSINESS_RULE_VIOLATION</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>COMPOSITE_DUPLICATE</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Incomplete Composite Key</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Composite key ('x', 'cust-2030') already exists.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -505,21 +516,26 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>INV-3197</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>COMPOSITE_DUPLICATE</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Composite Duplicate found: ('x', 'cust-2030')</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Composite key ('inv-3197', 'cust-2197') already exists.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -528,220 +544,206 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SYSTEM_CRASH</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>'float' object has no attribute 'lower'</t>
+          <t>Ab</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>BUSINESS_RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Too short (Min: 3)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>205</v>
+        <v>52</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>invoice_number</t>
+          <t>status</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>COMPOSITE_DUPLICATE</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Composite Duplicate found: ('inv-3197', 'cust-2197')</t>
+          <t>draft</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BUSINESS_RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Invalid value. Must be one of: ['active', 'pending', 'closed', 'suspend']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>BUSINESS_RULE_VIOLATION</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>2</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Too short (Min: 3)</t>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Constraint: Since status is suspend, this must be None</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>German Tech GmbH 199 German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>BUSINESS_RULE_VIOLATION</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>2</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Invalid value. Must be one of: ['active', 'pending', 'closed', 'suspend']</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Too long (Max: 50)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>62</v>
+        <v>203</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>BUSINESS_RULE_VIOLATION</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MISSING_REQUIRED</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>2</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Constraint: Since status is suspend, this must be None</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Field is mandatory but found empty.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TYPE_MISMATCH</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Invalid float format</t>
+          <t>INVALID-123</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PATTERN_MISMATCH</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Value 'INVALID-123' does not match required pattern.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>created_at</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>2029-05-05</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>BUSINESS_RULE_VIOLATION</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Too long (Max: 50)</t>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Future dates not allowed (2029)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>PATTERN_MISMATCH</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>34</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>BUSINESS_RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>3</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Format mismatch for project_code</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>72</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>BUSINESS_RULE_VIOLATION</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Future dates not allowed (2029)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>204</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>BUSINESS_RULE_VIOLATION</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>3</v>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Year 1970 is before allowed minimum 2000</t>
         </is>

--- a/data/result/error_report.xlsx
+++ b/data/result/error_report.xlsx
@@ -473,13 +473,13 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Field is mandatory but found empty.</t>
+          <t>Mandatory field is empty</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -488,7 +488,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>x</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -501,13 +501,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Composite key ('x', 'cust-2030') already exists.</t>
+          <t>Original row flagged: Conflict with row 33</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -516,7 +516,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>INV-3197</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -529,77 +529,79 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Composite key ('inv-3197', 'cust-2197') already exists.</t>
+          <t>Duplicate of row 32</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>invoice_number</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ab</t>
+          <t>inv-3197</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BUSINESS_RULE_VIOLATION</t>
+          <t>COMPOSITE_DUPLICATE</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Too short (Min: 3)</t>
+          <t>Original row flagged: Conflict with row 205</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>invoice_number</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>INV-3197</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BUSINESS_RULE_VIOLATION</t>
+          <t>COMPOSITE_DUPLICATE</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Invalid value. Must be one of: ['active', 'pending', 'closed', 'suspend']</t>
+          <t>Duplicate of row 199</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>10</v>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ab</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -611,22 +613,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Constraint: Since status is suspend, this must be None</t>
+          <t>Too short (Min: 3)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>status</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>German Tech GmbH 199 German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199</t>
+          <t>draft</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -639,23 +641,25 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Too long (Max: 50)</t>
+          <t>Invalid value. Must be one of: ['active', 'pending', 'closed', 'suspend']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>203</v>
+        <v>62</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MISSING_REQUIRED</t>
+          <t>BUSINESS_RULE_VIOLATION</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -663,81 +667,79 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Field is mandatory but found empty.</t>
+          <t>Constraint: Since status is suspend, this must be None</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>INVALID-123</t>
+          <t>German Tech GmbH 199 German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PATTERN_MISMATCH</t>
+          <t>BUSINESS_RULE_VIOLATION</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Value 'INVALID-123' does not match required pattern.</t>
+          <t>Too long (Max: 50)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2029-05-05</t>
-        </is>
-      </c>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>BUSINESS_RULE_VIOLATION</t>
+          <t>MISSING_REQUIRED</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Future dates not allowed (2029)</t>
+          <t>Mandatory field is empty</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>34</v>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>INVALID-123</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BUSINESS_RULE_VIOLATION</t>
+          <t>PATTERN_MISMATCH</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -745,7 +747,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Year 1970 is before allowed minimum 2000</t>
+          <t>Invalid pattern: INVALID-123</t>
         </is>
       </c>
     </row>

--- a/data/result/error_report.xlsx
+++ b/data/result/error_report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,17 +455,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>customer_code</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>invoice_number</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>inv-91</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MISSING_REQUIRED</t>
+          <t>COMPOSITE_DUPLICATE</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -473,27 +477,23 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mandatory field is empty</t>
+          <t>Original row flagged: Conflict with row 447</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>invoice_number</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>customer_code</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>COMPOSITE_DUPLICATE</t>
+          <t>MISSING_REQUIRED</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -501,27 +501,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Original row flagged: Conflict with row 33</t>
+          <t>Mandatory field is empty</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>33</v>
+        <v>402</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>invoice_number</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CUST-X</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>COMPOSITE_DUPLICATE</t>
+          <t>PATTERN_MISMATCH</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -529,27 +529,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Duplicate of row 32</t>
+          <t>Invalid pattern: CUST-X</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>199</v>
+        <v>403</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>invoice_number</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>inv-3197</t>
+          <t>CUST-X</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>COMPOSITE_DUPLICATE</t>
+          <t>PATTERN_MISMATCH</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -557,13 +557,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Original row flagged: Conflict with row 205</t>
+          <t>Invalid pattern: CUST-X</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>205</v>
+        <v>447</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>INV-3197</t>
+          <t>INV-91</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -585,95 +585,97 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Duplicate of row 199</t>
+          <t>Duplicate of row 93</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>42</v>
+        <v>503</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ab</t>
+          <t>CUST-Y</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BUSINESS_RULE_VIOLATION</t>
+          <t>PATTERN_MISMATCH</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Too short (Min: 3)</t>
+          <t>Invalid pattern: CUST-Y</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>52</v>
+        <v>504</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>draft</t>
+          <t>CUST-Y</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BUSINESS_RULE_VIOLATION</t>
+          <t>PATTERN_MISMATCH</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Invalid value. Must be one of: ['active', 'pending', 'closed', 'suspend']</t>
+          <t>Invalid pattern: CUST-Y</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>62</v>
+        <v>505</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>10</v>
+          <t>customer_code</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CUST-Y</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BUSINESS_RULE_VIOLATION</t>
+          <t>PATTERN_MISMATCH</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Constraint: Since status is suspend, this must be None</t>
+          <t>Invalid pattern: CUST-Y</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -682,7 +684,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>German Tech GmbH 199 German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199German Tech GmbH 199</t>
+          <t>CompanyCompanyCompanyCompanyCompanyCompanyCompanyCompanyCompanyCompanyCompanyCompanyCompanyCompanyCompanyCompanyCompanyCompany 28</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -701,17 +703,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>203</v>
+        <v>302</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MISSING_REQUIRED</t>
+          <t>BUSINESS_RULE_VIOLATION</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -719,35 +725,63 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mandatory field is empty</t>
+          <t>Constraint: Since status is suspend, this must be None</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12</v>
+        <v>703</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>invalid_email.com</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>PATTERN_MISMATCH</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Invalid email format</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>202</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>project_code</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>INVALID-123</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>WRONG-CODE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>PATTERN_MISMATCH</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="E13" t="n">
         <v>3</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Invalid pattern: INVALID-123</t>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Invalid pattern: WRONG-CODE</t>
         </is>
       </c>
     </row>
